--- a/WaterLevel/WL_04_2021-06-10edit2.xlsx
+++ b/WaterLevel/WL_04_2021-06-10edit2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25217"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adminliveunc-my.sharepoint.com/personal/kriddie_ad_unc_edu/Documents/Ecuador2021/Ecuador2021/WaterLevel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{3F145E7C-5ACF-294D-B025-501396AF9753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0218658-E83A-1048-B0AF-58435C5D8AF5}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{3F145E7C-5ACF-294D-B025-501396AF9753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C440D8C-974E-534D-925B-4CCFA910D6E5}"/>
   <bookViews>
     <workbookView xWindow="4300" yWindow="2700" windowWidth="27640" windowHeight="16940" xr2:uid="{A37B7150-6CA6-F148-AB66-38AA02296908}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -408,14 +408,17 @@
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -429,7 +432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -443,7 +446,7 @@
         <v>10.161</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -457,7 +460,7 @@
         <v>10.259</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -471,7 +474,7 @@
         <v>10.356999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -485,7 +488,7 @@
         <v>10.356999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -499,7 +502,7 @@
         <v>10.356999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -513,7 +516,7 @@
         <v>10.455</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -527,7 +530,7 @@
         <v>10.553000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -541,7 +544,7 @@
         <v>10.553000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -555,7 +558,7 @@
         <v>10.455</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -569,7 +572,7 @@
         <v>10.356999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -583,7 +586,7 @@
         <v>10.356999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -597,7 +600,7 @@
         <v>10.259</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -611,7 +614,7 @@
         <v>10.161</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -625,7 +628,7 @@
         <v>10.063000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -639,7 +642,7 @@
         <v>9.9649999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -653,7 +656,7 @@
         <v>9.7680000000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -667,7 +670,7 @@
         <v>9.4719999999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -681,7 +684,7 @@
         <v>9.2750000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -695,7 +698,7 @@
         <v>9.077</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -709,7 +712,7 @@
         <v>8.8789999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -723,7 +726,7 @@
         <v>8.68</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -737,7 +740,7 @@
         <v>8.4809999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -751,7 +754,7 @@
         <v>8.282</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -765,7 +768,7 @@
         <v>8.1820000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -779,7 +782,7 @@
         <v>7.9829999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -793,7 +796,7 @@
         <v>7.8819999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -807,7 +810,7 @@
         <v>7.782</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -821,7 +824,7 @@
         <v>7.6820000000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -835,7 +838,7 @@
         <v>7.4809999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -849,7 +852,7 @@
         <v>7.4809999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -863,7 +866,7 @@
         <v>7.3810000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -877,7 +880,7 @@
         <v>7.28</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -891,7 +894,7 @@
         <v>7.1790000000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -905,7 +908,7 @@
         <v>7.0789999999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -919,7 +922,7 @@
         <v>7.0789999999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -933,7 +936,7 @@
         <v>7.0789999999999997</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -947,7 +950,7 @@
         <v>6.9779999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -961,7 +964,7 @@
         <v>6.9779999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -975,7 +978,7 @@
         <v>6.9779999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -989,7 +992,7 @@
         <v>6.8769999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1003,7 +1006,7 @@
         <v>6.8769999999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1017,7 +1020,7 @@
         <v>6.8769999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1031,7 +1034,7 @@
         <v>6.8769999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1045,7 +1048,7 @@
         <v>6.8769999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1059,7 +1062,7 @@
         <v>6.8769999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1073,7 +1076,7 @@
         <v>6.7750000000000004</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1087,7 +1090,7 @@
         <v>6.7750000000000004</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1101,7 +1104,7 @@
         <v>6.7750000000000004</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1115,7 +1118,7 @@
         <v>6.6740000000000004</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1129,7 +1132,7 @@
         <v>6.6740000000000004</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1143,7 +1146,7 @@
         <v>6.5730000000000004</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
@@ -1157,7 +1160,7 @@
         <v>6.5730000000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>
@@ -1171,7 +1174,7 @@
         <v>6.5730000000000004</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>54</v>
       </c>
@@ -1185,7 +1188,7 @@
         <v>6.4710000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>55</v>
       </c>
@@ -1199,7 +1202,7 @@
         <v>6.4710000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>56</v>
       </c>
@@ -1213,7 +1216,7 @@
         <v>6.4710000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57</v>
       </c>
@@ -1227,7 +1230,7 @@
         <v>6.4710000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>58</v>
       </c>
@@ -1241,7 +1244,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1255,7 +1258,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>60</v>
       </c>
@@ -1269,7 +1272,7 @@
         <v>6.4710000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>61</v>
       </c>
@@ -1283,7 +1286,7 @@
         <v>6.4710000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>62</v>
       </c>
@@ -1297,7 +1300,7 @@
         <v>6.4710000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>63</v>
       </c>
@@ -1311,7 +1314,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>64</v>
       </c>
@@ -1325,7 +1328,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>65</v>
       </c>
@@ -1339,7 +1342,7 @@
         <v>6.2679999999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>66</v>
       </c>
@@ -1353,7 +1356,7 @@
         <v>6.2679999999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>67</v>
       </c>
@@ -1367,7 +1370,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>68</v>
       </c>
@@ -1381,7 +1384,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>69</v>
       </c>
@@ -1395,7 +1398,7 @@
         <v>6.2679999999999998</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>70</v>
       </c>
@@ -1409,7 +1412,7 @@
         <v>6.2679999999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>71</v>
       </c>
@@ -1423,7 +1426,7 @@
         <v>6.2679999999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>72</v>
       </c>
@@ -1437,7 +1440,7 @@
         <v>6.2679999999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>73</v>
       </c>
@@ -1451,7 +1454,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>74</v>
       </c>
@@ -1465,7 +1468,7 @@
         <v>6.4710000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>75</v>
       </c>
@@ -1479,7 +1482,7 @@
         <v>6.6740000000000004</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>76</v>
       </c>
@@ -1493,7 +1496,7 @@
         <v>6.8769999999999998</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>77</v>
       </c>
@@ -1507,7 +1510,7 @@
         <v>7.0789999999999997</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>78</v>
       </c>
@@ -1521,7 +1524,7 @@
         <v>7.28</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>79</v>
       </c>
@@ -1535,7 +1538,7 @@
         <v>7.4809999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>80</v>
       </c>
@@ -1549,7 +1552,7 @@
         <v>7.782</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>81</v>
       </c>
@@ -1563,7 +1566,7 @@
         <v>7.8819999999999997</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>82</v>
       </c>
@@ -1577,7 +1580,7 @@
         <v>7.9829999999999997</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>83</v>
       </c>
@@ -1591,7 +1594,7 @@
         <v>8.1820000000000004</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>84</v>
       </c>
@@ -1605,7 +1608,7 @@
         <v>8.3819999999999997</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>85</v>
       </c>
@@ -1619,7 +1622,7 @@
         <v>8.7789999999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>86</v>
       </c>
@@ -1633,7 +1636,7 @@
         <v>9.2750000000000004</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>87</v>
       </c>
@@ -1647,7 +1650,7 @@
         <v>9.8659999999999997</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>88</v>
       </c>
@@ -1661,7 +1664,7 @@
         <v>10.259</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>89</v>
       </c>
@@ -1675,7 +1678,7 @@
         <v>10.455</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>90</v>
       </c>
@@ -1689,7 +1692,7 @@
         <v>10.259</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>91</v>
       </c>
@@ -1703,7 +1706,7 @@
         <v>10.259</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>92</v>
       </c>
@@ -1717,7 +1720,7 @@
         <v>10.356999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>93</v>
       </c>
@@ -1731,7 +1734,7 @@
         <v>10.553000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>94</v>
       </c>
@@ -1745,7 +1748,7 @@
         <v>10.747999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>95</v>
       </c>
@@ -1759,7 +1762,7 @@
         <v>10.846</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>96</v>
       </c>
@@ -1773,7 +1776,7 @@
         <v>10.846</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>97</v>
       </c>
@@ -1787,7 +1790,7 @@
         <v>10.651</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>98</v>
       </c>
@@ -1801,7 +1804,7 @@
         <v>10.553000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>99</v>
       </c>
@@ -1815,7 +1818,7 @@
         <v>10.553000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>100</v>
       </c>
@@ -1829,7 +1832,7 @@
         <v>10.553000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>101</v>
       </c>
@@ -1843,7 +1846,7 @@
         <v>10.651</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>102</v>
       </c>
@@ -1857,7 +1860,7 @@
         <v>10.553000000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>103</v>
       </c>
@@ -1871,7 +1874,7 @@
         <v>10.455</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>104</v>
       </c>
@@ -1885,7 +1888,7 @@
         <v>10.356999999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>105</v>
       </c>
@@ -1899,19 +1902,19 @@
         <v>10.161</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B112" s="1"/>
     </row>
   </sheetData>
